--- a/PSI_example.xlsx
+++ b/PSI_example.xlsx
@@ -13,10 +13,200 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+  <si>
+    <t>P.Name</t>
+  </si>
+  <si>
+    <t>PSI_P_RADIUS</t>
+  </si>
+  <si>
+    <t>PSI_P_MASS</t>
+  </si>
+  <si>
+    <t>PSI_P_ESCAPE</t>
+  </si>
+  <si>
+    <t>PSI_P_TEMP_SURF</t>
+  </si>
+  <si>
+    <t>PSI_S_TEMPERATURE</t>
+  </si>
+  <si>
+    <t>PSI_S_RADIUS</t>
+  </si>
+  <si>
+    <t>PSI_S_MASS</t>
+  </si>
+  <si>
+    <t>PSI_S_LUMINOSITY</t>
+  </si>
+  <si>
+    <t>PSI_Interior</t>
+  </si>
+  <si>
+    <t>PSI_Surface</t>
+  </si>
+  <si>
+    <t>PSI_Global</t>
+  </si>
+  <si>
+    <t>Kepler-442 b</t>
+  </si>
+  <si>
+    <t>Kepler-1544 b</t>
+  </si>
+  <si>
+    <t>Kepler-1653 b</t>
+  </si>
+  <si>
+    <t>Kepler-395 c</t>
+  </si>
+  <si>
+    <t>Kepler-1410 b</t>
+  </si>
+  <si>
+    <t>Kepler-1389 b</t>
+  </si>
+  <si>
+    <t>Kepler-283 c</t>
+  </si>
+  <si>
+    <t>tau Cet e</t>
+  </si>
+  <si>
+    <t>Kepler-438 b</t>
+  </si>
+  <si>
+    <t>Kepler-443 b</t>
+  </si>
+  <si>
+    <t>HD 85512 b</t>
+  </si>
+  <si>
+    <t>Kepler-440 b</t>
+  </si>
+  <si>
+    <t>Kepler-437 b</t>
+  </si>
+  <si>
+    <t>Kepler-69 c</t>
+  </si>
+  <si>
+    <t>Kepler-1816 b</t>
+  </si>
+  <si>
+    <t>Kepler-174 d</t>
+  </si>
+  <si>
+    <t>Kepler-1701 b</t>
+  </si>
+  <si>
+    <t>Kepler-1606 b</t>
+  </si>
+  <si>
+    <t>Kepler-452 b</t>
+  </si>
+  <si>
+    <t>Kepler-61 b</t>
+  </si>
+  <si>
+    <t>TOI-712 d</t>
+  </si>
+  <si>
+    <t>Kepler-1638 b</t>
+  </si>
+  <si>
+    <t>Kepler-155 c</t>
+  </si>
+  <si>
+    <t>Kepler-1540 b</t>
+  </si>
+  <si>
+    <t>K2-155 d</t>
+  </si>
+  <si>
+    <t>Kepler-1552 b</t>
+  </si>
+  <si>
+    <t>Kepler-1020 b</t>
+  </si>
+  <si>
+    <t>HD 216520 c</t>
+  </si>
+  <si>
+    <t>HD 40307 g</t>
+  </si>
+  <si>
+    <t>Kepler-1090 b</t>
+  </si>
+  <si>
+    <t>Kepler-1858 b</t>
+  </si>
+  <si>
+    <t>Kepler-1455 b</t>
+  </si>
+  <si>
+    <t>Kepler-26 e</t>
+  </si>
+  <si>
+    <t>HD 20794 e</t>
+  </si>
+  <si>
+    <t>Kepler-298 d</t>
+  </si>
+  <si>
+    <t>Kepler-235 e</t>
+  </si>
+  <si>
+    <t>Kepler-439 b</t>
+  </si>
+  <si>
+    <t>HIP 38594 b</t>
+  </si>
+  <si>
+    <t>Kepler-152 c</t>
+  </si>
+  <si>
+    <t>GJ 414 A b</t>
+  </si>
+  <si>
+    <t>K2-286 b</t>
+  </si>
+  <si>
+    <t>Kepler-1040 b</t>
+  </si>
+  <si>
+    <t>GJ 676 A e</t>
+  </si>
+  <si>
+    <t>Kepler-1388 e</t>
+  </si>
+  <si>
+    <t>Kepler-267 d</t>
+  </si>
+  <si>
+    <t>Kepler-705 b</t>
+  </si>
+  <si>
+    <t>K2-323 b</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +230,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +548,1837 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.97</v>
+      </c>
+      <c r="D2">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.75</v>
+      </c>
+      <c r="F2">
+        <v>0.99</v>
+      </c>
+      <c r="G2">
+        <v>0.65</v>
+      </c>
+      <c r="H2">
+        <v>0.99</v>
+      </c>
+      <c r="I2">
+        <v>0.8</v>
+      </c>
+      <c r="J2">
+        <v>0.95</v>
+      </c>
+      <c r="K2">
+        <v>0.84</v>
+      </c>
+      <c r="L2">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.85</v>
+      </c>
+      <c r="C3">
+        <v>0.93</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>0.85</v>
+      </c>
+      <c r="F3">
+        <v>0.89</v>
+      </c>
+      <c r="G3">
+        <v>0.9</v>
+      </c>
+      <c r="H3">
+        <v>0.79</v>
+      </c>
+      <c r="I3">
+        <v>0.96</v>
+      </c>
+      <c r="J3">
+        <v>0.89</v>
+      </c>
+      <c r="K3">
+        <v>0.88</v>
+      </c>
+      <c r="L3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.79</v>
+      </c>
+      <c r="C4">
+        <v>0.9</v>
+      </c>
+      <c r="D4">
+        <v>0.87</v>
+      </c>
+      <c r="E4">
+        <v>0.98</v>
+      </c>
+      <c r="F4">
+        <v>0.91</v>
+      </c>
+      <c r="G4">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.87</v>
+      </c>
+      <c r="I4">
+        <v>0.95</v>
+      </c>
+      <c r="J4">
+        <v>0.84</v>
+      </c>
+      <c r="K4">
+        <v>0.9</v>
+      </c>
+      <c r="L4">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.95</v>
+      </c>
+      <c r="C5">
+        <v>0.97</v>
+      </c>
+      <c r="D5">
+        <v>0.95</v>
+      </c>
+      <c r="E5">
+        <v>0.64</v>
+      </c>
+      <c r="F5">
+        <v>0.95</v>
+      </c>
+      <c r="G5">
+        <v>0.59</v>
+      </c>
+      <c r="H5">
+        <v>0.98</v>
+      </c>
+      <c r="I5">
+        <v>0.67</v>
+      </c>
+      <c r="J5">
+        <v>0.96</v>
+      </c>
+      <c r="K5">
+        <v>0.78</v>
+      </c>
+      <c r="L5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.85</v>
+      </c>
+      <c r="C6">
+        <v>0.93</v>
+      </c>
+      <c r="D6">
+        <v>0.9</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.9</v>
+      </c>
+      <c r="G6">
+        <v>0.65</v>
+      </c>
+      <c r="H6">
+        <v>0.96</v>
+      </c>
+      <c r="I6">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.89</v>
+      </c>
+      <c r="K6">
+        <v>0.84</v>
+      </c>
+      <c r="L6">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.86</v>
+      </c>
+      <c r="C7">
+        <v>0.93</v>
+      </c>
+      <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>0.67</v>
+      </c>
+      <c r="F7">
+        <v>0.84</v>
+      </c>
+      <c r="G7">
+        <v>0.9</v>
+      </c>
+      <c r="H7">
+        <v>0.79</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.89</v>
+      </c>
+      <c r="K7">
+        <v>0.84</v>
+      </c>
+      <c r="L7">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>0.85</v>
+      </c>
+      <c r="C8">
+        <v>0.92</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.88</v>
+      </c>
+      <c r="F8">
+        <v>0.97</v>
+      </c>
+      <c r="G8">
+        <v>0.6</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.78</v>
+      </c>
+      <c r="J8">
+        <v>0.88</v>
+      </c>
+      <c r="K8">
+        <v>0.84</v>
+      </c>
+      <c r="L8">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>0.85</v>
+      </c>
+      <c r="C9">
+        <v>0.93</v>
+      </c>
+      <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>0.73</v>
+      </c>
+      <c r="F9">
+        <v>0.79</v>
+      </c>
+      <c r="G9">
+        <v>0.95</v>
+      </c>
+      <c r="H9">
+        <v>0.82</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="J9">
+        <v>0.89</v>
+      </c>
+      <c r="K9">
+        <v>0.84</v>
+      </c>
+      <c r="L9">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0.99</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.99</v>
+      </c>
+      <c r="E10">
+        <v>0.77</v>
+      </c>
+      <c r="F10">
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <v>0.52</v>
+      </c>
+      <c r="H10">
+        <v>0.92</v>
+      </c>
+      <c r="I10">
+        <v>0.6</v>
+      </c>
+      <c r="J10">
+        <v>0.99</v>
+      </c>
+      <c r="K10">
+        <v>0.75</v>
+      </c>
+      <c r="L10">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0.77</v>
+      </c>
+      <c r="C11">
+        <v>0.89</v>
+      </c>
+      <c r="D11">
+        <v>0.86</v>
+      </c>
+      <c r="E11">
+        <v>0.88</v>
+      </c>
+      <c r="F11">
+        <v>0.93</v>
+      </c>
+      <c r="G11">
+        <v>0.84</v>
+      </c>
+      <c r="H11">
+        <v>0.85</v>
+      </c>
+      <c r="I11">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.83</v>
+      </c>
+      <c r="K11">
+        <v>0.88</v>
+      </c>
+      <c r="L11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0.87</v>
+      </c>
+      <c r="C12">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.91</v>
+      </c>
+      <c r="E12">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.96</v>
+      </c>
+      <c r="G12">
+        <v>0.84</v>
+      </c>
+      <c r="H12">
+        <v>0.77</v>
+      </c>
+      <c r="I12">
+        <v>0.88</v>
+      </c>
+      <c r="J12">
+        <v>0.9</v>
+      </c>
+      <c r="K12">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L12">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>0.83</v>
+      </c>
+      <c r="C13">
+        <v>0.92</v>
+      </c>
+      <c r="D13">
+        <v>0.9</v>
+      </c>
+      <c r="E13">
+        <v>0.88</v>
+      </c>
+      <c r="F13">
+        <v>0.91</v>
+      </c>
+      <c r="G13">
+        <v>0.59</v>
+      </c>
+      <c r="H13">
+        <v>0.96</v>
+      </c>
+      <c r="I13">
+        <v>0.72</v>
+      </c>
+      <c r="J13">
+        <v>0.87</v>
+      </c>
+      <c r="K13">
+        <v>0.82</v>
+      </c>
+      <c r="L13">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+      <c r="C14">
+        <v>0.9</v>
+      </c>
+      <c r="D14">
+        <v>0.87</v>
+      </c>
+      <c r="E14">
+        <v>0.63</v>
+      </c>
+      <c r="F14">
+        <v>0.97</v>
+      </c>
+      <c r="G14">
+        <v>0.79</v>
+      </c>
+      <c r="H14">
+        <v>0.88</v>
+      </c>
+      <c r="I14">
+        <v>0.89</v>
+      </c>
+      <c r="J14">
+        <v>0.85</v>
+      </c>
+      <c r="K14">
+        <v>0.83</v>
+      </c>
+      <c r="L14">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>0.87</v>
+      </c>
+      <c r="C15">
+        <v>0.93</v>
+      </c>
+      <c r="D15">
+        <v>0.91</v>
+      </c>
+      <c r="E15">
+        <v>0.67</v>
+      </c>
+      <c r="F15">
+        <v>0.73</v>
+      </c>
+      <c r="G15">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.79</v>
+      </c>
+      <c r="I15">
+        <v>0.79</v>
+      </c>
+      <c r="J15">
+        <v>0.9</v>
+      </c>
+      <c r="K15">
+        <v>0.78</v>
+      </c>
+      <c r="L15">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0.82</v>
+      </c>
+      <c r="C16">
+        <v>0.91</v>
+      </c>
+      <c r="D16">
+        <v>0.88</v>
+      </c>
+      <c r="E16">
+        <v>0.61</v>
+      </c>
+      <c r="F16">
+        <v>0.85</v>
+      </c>
+      <c r="G16">
+        <v>0.84</v>
+      </c>
+      <c r="H16">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.86</v>
+      </c>
+      <c r="K16">
+        <v>0.82</v>
+      </c>
+      <c r="L16">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>0.79</v>
+      </c>
+      <c r="C17">
+        <v>0.9</v>
+      </c>
+      <c r="D17">
+        <v>0.87</v>
+      </c>
+      <c r="E17">
+        <v>0.66</v>
+      </c>
+      <c r="F17">
+        <v>0.89</v>
+      </c>
+      <c r="G17">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0.98</v>
+      </c>
+      <c r="J17">
+        <v>0.84</v>
+      </c>
+      <c r="K17">
+        <v>0.84</v>
+      </c>
+      <c r="L17">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>0.79</v>
+      </c>
+      <c r="C18">
+        <v>0.89</v>
+      </c>
+      <c r="D18">
+        <v>0.87</v>
+      </c>
+      <c r="E18">
+        <v>0.83</v>
+      </c>
+      <c r="F18">
+        <v>0.83</v>
+      </c>
+      <c r="G18">
+        <v>0.93</v>
+      </c>
+      <c r="H18">
+        <v>0.75</v>
+      </c>
+      <c r="I18">
+        <v>0.92</v>
+      </c>
+      <c r="J18">
+        <v>0.84</v>
+      </c>
+      <c r="K18">
+        <v>0.85</v>
+      </c>
+      <c r="L18">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.91</v>
+      </c>
+      <c r="D19">
+        <v>0.88</v>
+      </c>
+      <c r="E19">
+        <v>0.75</v>
+      </c>
+      <c r="F19">
+        <v>0.77</v>
+      </c>
+      <c r="G19">
+        <v>0.9</v>
+      </c>
+      <c r="H19">
+        <v>0.72</v>
+      </c>
+      <c r="I19">
+        <v>0.83</v>
+      </c>
+      <c r="J19">
+        <v>0.86</v>
+      </c>
+      <c r="K19">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>0.88</v>
+      </c>
+      <c r="C20">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="D20">
+        <v>0.91</v>
+      </c>
+      <c r="E20">
+        <v>0.98</v>
+      </c>
+      <c r="F20">
+        <v>0.71</v>
+      </c>
+      <c r="G20">
+        <v>0.61</v>
+      </c>
+      <c r="H20">
+        <v>0.64</v>
+      </c>
+      <c r="I20">
+        <v>0.7</v>
+      </c>
+      <c r="J20">
+        <v>0.91</v>
+      </c>
+      <c r="K20">
+        <v>0.75</v>
+      </c>
+      <c r="L20">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>0.8</v>
+      </c>
+      <c r="C21">
+        <v>0.9</v>
+      </c>
+      <c r="D21">
+        <v>0.87</v>
+      </c>
+      <c r="E21">
+        <v>0.73</v>
+      </c>
+      <c r="F21">
+        <v>0.88</v>
+      </c>
+      <c r="G21">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.95</v>
+      </c>
+      <c r="I21">
+        <v>0.78</v>
+      </c>
+      <c r="J21">
+        <v>0.85</v>
+      </c>
+      <c r="K21">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>0.75</v>
+      </c>
+      <c r="C22">
+        <v>0.88</v>
+      </c>
+      <c r="D22">
+        <v>0.85</v>
+      </c>
+      <c r="E22">
+        <v>0.76</v>
+      </c>
+      <c r="F22">
+        <v>0.95</v>
+      </c>
+      <c r="G22">
+        <v>0.78</v>
+      </c>
+      <c r="H22">
+        <v>0.86</v>
+      </c>
+      <c r="I22">
+        <v>0.9</v>
+      </c>
+      <c r="J22">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.85</v>
+      </c>
+      <c r="L22">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>0.84</v>
+      </c>
+      <c r="C23">
+        <v>0.92</v>
+      </c>
+      <c r="D23">
+        <v>0.89</v>
+      </c>
+      <c r="E23">
+        <v>0.84</v>
+      </c>
+      <c r="F23">
+        <v>0.72</v>
+      </c>
+      <c r="G23">
+        <v>0.78</v>
+      </c>
+      <c r="H23">
+        <v>0.68</v>
+      </c>
+      <c r="I23">
+        <v>0.8</v>
+      </c>
+      <c r="J23">
+        <v>0.88</v>
+      </c>
+      <c r="K23">
+        <v>0.78</v>
+      </c>
+      <c r="L23">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>0.78</v>
+      </c>
+      <c r="C24">
+        <v>0.89</v>
+      </c>
+      <c r="D24">
+        <v>0.86</v>
+      </c>
+      <c r="E24">
+        <v>0.99</v>
+      </c>
+      <c r="F24">
+        <v>0.98</v>
+      </c>
+      <c r="G24">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.95</v>
+      </c>
+      <c r="I24">
+        <v>0.66</v>
+      </c>
+      <c r="J24">
+        <v>0.83</v>
+      </c>
+      <c r="K24">
+        <v>0.84</v>
+      </c>
+      <c r="L24">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>0.75</v>
+      </c>
+      <c r="C25">
+        <v>0.88</v>
+      </c>
+      <c r="D25">
+        <v>0.85</v>
+      </c>
+      <c r="E25">
+        <v>0.8</v>
+      </c>
+      <c r="F25">
+        <v>0.97</v>
+      </c>
+      <c r="G25">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.85</v>
+      </c>
+      <c r="I25">
+        <v>0.86</v>
+      </c>
+      <c r="J25">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K25">
+        <v>0.85</v>
+      </c>
+      <c r="L25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>0.83</v>
+      </c>
+      <c r="C26">
+        <v>0.92</v>
+      </c>
+      <c r="D26">
+        <v>0.89</v>
+      </c>
+      <c r="E26">
+        <v>0.77</v>
+      </c>
+      <c r="F26">
+        <v>0.95</v>
+      </c>
+      <c r="G26">
+        <v>0.62</v>
+      </c>
+      <c r="H26">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.66</v>
+      </c>
+      <c r="J26">
+        <v>0.87</v>
+      </c>
+      <c r="K26">
+        <v>0.79</v>
+      </c>
+      <c r="L26">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>0.76</v>
+      </c>
+      <c r="C27">
+        <v>0.88</v>
+      </c>
+      <c r="D27">
+        <v>0.85</v>
+      </c>
+      <c r="E27">
+        <v>0.73</v>
+      </c>
+      <c r="F27">
+        <v>0.82</v>
+      </c>
+      <c r="G27">
+        <v>0.97</v>
+      </c>
+      <c r="H27">
+        <v>0.76</v>
+      </c>
+      <c r="I27">
+        <v>0.85</v>
+      </c>
+      <c r="J27">
+        <v>0.82</v>
+      </c>
+      <c r="K27">
+        <v>0.83</v>
+      </c>
+      <c r="L27">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>0.78</v>
+      </c>
+      <c r="C28">
+        <v>0.89</v>
+      </c>
+      <c r="D28">
+        <v>0.86</v>
+      </c>
+      <c r="E28">
+        <v>0.57</v>
+      </c>
+      <c r="F28">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0.75</v>
+      </c>
+      <c r="I28">
+        <v>0.96</v>
+      </c>
+      <c r="J28">
+        <v>0.83</v>
+      </c>
+      <c r="K28">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C29">
+        <v>0.85</v>
+      </c>
+      <c r="D29">
+        <v>0.82</v>
+      </c>
+      <c r="E29">
+        <v>0.9</v>
+      </c>
+      <c r="F29">
+        <v>0.84</v>
+      </c>
+      <c r="G29">
+        <v>0.93</v>
+      </c>
+      <c r="H29">
+        <v>0.78</v>
+      </c>
+      <c r="I29">
+        <v>0.97</v>
+      </c>
+      <c r="J29">
+        <v>0.77</v>
+      </c>
+      <c r="K29">
+        <v>0.87</v>
+      </c>
+      <c r="L29">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>0.74</v>
+      </c>
+      <c r="C30">
+        <v>0.87</v>
+      </c>
+      <c r="D30">
+        <v>0.84</v>
+      </c>
+      <c r="E30">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.87</v>
+      </c>
+      <c r="G30">
+        <v>0.86</v>
+      </c>
+      <c r="H30">
+        <v>0.83</v>
+      </c>
+      <c r="I30">
+        <v>0.95</v>
+      </c>
+      <c r="J30">
+        <v>0.8</v>
+      </c>
+      <c r="K30">
+        <v>0.84</v>
+      </c>
+      <c r="L30">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>0.78</v>
+      </c>
+      <c r="C31">
+        <v>0.89</v>
+      </c>
+      <c r="D31">
+        <v>0.86</v>
+      </c>
+      <c r="E31">
+        <v>0.71</v>
+      </c>
+      <c r="F31">
+        <v>0.79</v>
+      </c>
+      <c r="G31">
+        <v>0.97</v>
+      </c>
+      <c r="H31">
+        <v>0.75</v>
+      </c>
+      <c r="I31">
+        <v>0.82</v>
+      </c>
+      <c r="J31">
+        <v>0.83</v>
+      </c>
+      <c r="K31">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L31">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>0.76</v>
+      </c>
+      <c r="C32">
+        <v>0.88</v>
+      </c>
+      <c r="D32">
+        <v>0.85</v>
+      </c>
+      <c r="E32">
+        <v>0.52</v>
+      </c>
+      <c r="F32">
+        <v>0.87</v>
+      </c>
+      <c r="G32">
+        <v>0.97</v>
+      </c>
+      <c r="H32">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.97</v>
+      </c>
+      <c r="J32">
+        <v>0.82</v>
+      </c>
+      <c r="K32">
+        <v>0.82</v>
+      </c>
+      <c r="L32">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>0.8</v>
+      </c>
+      <c r="C33">
+        <v>0.9</v>
+      </c>
+      <c r="D33">
+        <v>0.87</v>
+      </c>
+      <c r="E33">
+        <v>0.78</v>
+      </c>
+      <c r="F33">
+        <v>0.89</v>
+      </c>
+      <c r="G33">
+        <v>0.65</v>
+      </c>
+      <c r="H33">
+        <v>0.98</v>
+      </c>
+      <c r="I33">
+        <v>0.7</v>
+      </c>
+      <c r="J33">
+        <v>0.85</v>
+      </c>
+      <c r="K33">
+        <v>0.8</v>
+      </c>
+      <c r="L33">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>0.76</v>
+      </c>
+      <c r="C34">
+        <v>0.88</v>
+      </c>
+      <c r="D34">
+        <v>0.85</v>
+      </c>
+      <c r="E34">
+        <v>0.7</v>
+      </c>
+      <c r="F34">
+        <v>0.99</v>
+      </c>
+      <c r="G34">
+        <v>0.6</v>
+      </c>
+      <c r="H34">
+        <v>0.98</v>
+      </c>
+      <c r="I34">
+        <v>0.74</v>
+      </c>
+      <c r="J34">
+        <v>0.82</v>
+      </c>
+      <c r="K34">
+        <v>0.8</v>
+      </c>
+      <c r="L34">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>0.82</v>
+      </c>
+      <c r="C35">
+        <v>0.91</v>
+      </c>
+      <c r="D35">
+        <v>0.88</v>
+      </c>
+      <c r="E35">
+        <v>0.54</v>
+      </c>
+      <c r="F35">
+        <v>0.77</v>
+      </c>
+      <c r="G35">
+        <v>0.82</v>
+      </c>
+      <c r="H35">
+        <v>0.79</v>
+      </c>
+      <c r="I35">
+        <v>0.83</v>
+      </c>
+      <c r="J35">
+        <v>0.86</v>
+      </c>
+      <c r="K35">
+        <v>0.76</v>
+      </c>
+      <c r="L35">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>0.75</v>
+      </c>
+      <c r="C36">
+        <v>0.88</v>
+      </c>
+      <c r="D36">
+        <v>0.85</v>
+      </c>
+      <c r="E36">
+        <v>0.66</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.62</v>
+      </c>
+      <c r="H36">
+        <v>0.93</v>
+      </c>
+      <c r="I36">
+        <v>0.9</v>
+      </c>
+      <c r="J36">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K36">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L36">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>0.79</v>
+      </c>
+      <c r="C37">
+        <v>0.89</v>
+      </c>
+      <c r="D37">
+        <v>0.87</v>
+      </c>
+      <c r="E37">
+        <v>0.72</v>
+      </c>
+      <c r="F37">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G37">
+        <v>0.57</v>
+      </c>
+      <c r="H37">
+        <v>0.98</v>
+      </c>
+      <c r="I37">
+        <v>0.72</v>
+      </c>
+      <c r="J37">
+        <v>0.84</v>
+      </c>
+      <c r="K37">
+        <v>0.79</v>
+      </c>
+      <c r="L37">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38">
+        <v>0.78</v>
+      </c>
+      <c r="C38">
+        <v>0.89</v>
+      </c>
+      <c r="D38">
+        <v>0.86</v>
+      </c>
+      <c r="E38">
+        <v>0.7</v>
+      </c>
+      <c r="F38">
+        <v>0.77</v>
+      </c>
+      <c r="G38">
+        <v>0.89</v>
+      </c>
+      <c r="H38">
+        <v>0.74</v>
+      </c>
+      <c r="I38">
+        <v>0.86</v>
+      </c>
+      <c r="J38">
+        <v>0.83</v>
+      </c>
+      <c r="K38">
+        <v>0.8</v>
+      </c>
+      <c r="L38">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39">
+        <v>0.72</v>
+      </c>
+      <c r="C39">
+        <v>0.86</v>
+      </c>
+      <c r="D39">
+        <v>0.83</v>
+      </c>
+      <c r="E39">
+        <v>0.88</v>
+      </c>
+      <c r="F39">
+        <v>0.9</v>
+      </c>
+      <c r="G39">
+        <v>0.71</v>
+      </c>
+      <c r="H39">
+        <v>0.99</v>
+      </c>
+      <c r="I39">
+        <v>0.74</v>
+      </c>
+      <c r="J39">
+        <v>0.79</v>
+      </c>
+      <c r="K39">
+        <v>0.84</v>
+      </c>
+      <c r="L39">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>0.77</v>
+      </c>
+      <c r="C40">
+        <v>0.88</v>
+      </c>
+      <c r="D40">
+        <v>0.85</v>
+      </c>
+      <c r="E40">
+        <v>0.53</v>
+      </c>
+      <c r="F40">
+        <v>0.84</v>
+      </c>
+      <c r="G40">
+        <v>0.86</v>
+      </c>
+      <c r="H40">
+        <v>0.78</v>
+      </c>
+      <c r="I40">
+        <v>0.97</v>
+      </c>
+      <c r="J40">
+        <v>0.82</v>
+      </c>
+      <c r="K40">
+        <v>0.79</v>
+      </c>
+      <c r="L40">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>0.74</v>
+      </c>
+      <c r="C41">
+        <v>0.87</v>
+      </c>
+      <c r="D41">
+        <v>0.83</v>
+      </c>
+      <c r="E41">
+        <v>0.63</v>
+      </c>
+      <c r="F41">
+        <v>0.91</v>
+      </c>
+      <c r="G41">
+        <v>0.79</v>
+      </c>
+      <c r="H41">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I41">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J41">
+        <v>0.8</v>
+      </c>
+      <c r="K41">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.9</v>
+      </c>
+      <c r="D42">
+        <v>0.87</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>0.85</v>
+      </c>
+      <c r="G42">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H42">
+        <v>0.95</v>
+      </c>
+      <c r="I42">
+        <v>0.75</v>
+      </c>
+      <c r="J42">
+        <v>0.85</v>
+      </c>
+      <c r="K42">
+        <v>0.75</v>
+      </c>
+      <c r="L42">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.9</v>
+      </c>
+      <c r="D43">
+        <v>0.88</v>
+      </c>
+      <c r="E43">
+        <v>0.63</v>
+      </c>
+      <c r="F43">
+        <v>0.72</v>
+      </c>
+      <c r="G43">
+        <v>0.77</v>
+      </c>
+      <c r="H43">
+        <v>0.67</v>
+      </c>
+      <c r="I43">
+        <v>0.77</v>
+      </c>
+      <c r="J43">
+        <v>0.85</v>
+      </c>
+      <c r="K43">
+        <v>0.74</v>
+      </c>
+      <c r="L43">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>0.75</v>
+      </c>
+      <c r="C44">
+        <v>0.88</v>
+      </c>
+      <c r="D44">
+        <v>0.85</v>
+      </c>
+      <c r="E44">
+        <v>0.52</v>
+      </c>
+      <c r="F44">
+        <v>0.87</v>
+      </c>
+      <c r="G44">
+        <v>0.74</v>
+      </c>
+      <c r="H44">
+        <v>0.96</v>
+      </c>
+      <c r="I44">
+        <v>0.75</v>
+      </c>
+      <c r="J44">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K44">
+        <v>0.77</v>
+      </c>
+      <c r="L44">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>0.76</v>
+      </c>
+      <c r="C45">
+        <v>0.88</v>
+      </c>
+      <c r="D45">
+        <v>0.85</v>
+      </c>
+      <c r="E45">
+        <v>0.6</v>
+      </c>
+      <c r="F45">
+        <v>0.9</v>
+      </c>
+      <c r="G45">
+        <v>0.67</v>
+      </c>
+      <c r="H45">
+        <v>0.96</v>
+      </c>
+      <c r="I45">
+        <v>0.71</v>
+      </c>
+      <c r="J45">
+        <v>0.82</v>
+      </c>
+      <c r="K45">
+        <v>0.77</v>
+      </c>
+      <c r="L45">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>0.78</v>
+      </c>
+      <c r="C46">
+        <v>0.89</v>
+      </c>
+      <c r="D46">
+        <v>0.86</v>
+      </c>
+      <c r="E46">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.95</v>
+      </c>
+      <c r="G46">
+        <v>0.59</v>
+      </c>
+      <c r="H46">
+        <v>0.92</v>
+      </c>
+      <c r="I46">
+        <v>0.66</v>
+      </c>
+      <c r="J46">
+        <v>0.83</v>
+      </c>
+      <c r="K46">
+        <v>0.74</v>
+      </c>
+      <c r="L46">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47">
+        <v>0.8</v>
+      </c>
+      <c r="C47">
+        <v>0.9</v>
+      </c>
+      <c r="D47">
+        <v>0.87</v>
+      </c>
+      <c r="E47">
+        <v>0.8</v>
+      </c>
+      <c r="F47">
+        <v>0.79</v>
+      </c>
+      <c r="G47">
+        <v>0.5</v>
+      </c>
+      <c r="H47">
+        <v>0.91</v>
+      </c>
+      <c r="I47">
+        <v>0.58</v>
+      </c>
+      <c r="J47">
+        <v>0.85</v>
+      </c>
+      <c r="K47">
+        <v>0.72</v>
+      </c>
+      <c r="L47">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C48">
+        <v>0.9</v>
+      </c>
+      <c r="D48">
+        <v>0.87</v>
+      </c>
+      <c r="E48">
+        <v>0.51</v>
+      </c>
+      <c r="F48">
+        <v>0.79</v>
+      </c>
+      <c r="G48">
+        <v>0.57</v>
+      </c>
+      <c r="H48">
+        <v>0.84</v>
+      </c>
+      <c r="I48">
+        <v>0.6</v>
+      </c>
+      <c r="J48">
+        <v>0.85</v>
+      </c>
+      <c r="K48">
+        <v>0.68</v>
+      </c>
+      <c r="L48">
+        <v>0.76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>